--- a/inst/extdata/cosmed_test.xlsx
+++ b/inst/extdata/cosmed_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\sciebo\Wissenschaft\R\exedtests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\sciebo\Wissenschaft\R\spiro\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605F2B0-DAC0-461E-88E6-54E8CF333E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1A8EB-28FA-4CA5-A27C-A56308E0D36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,8 +810,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:BH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2930,267 +2930,201 @@
       <c r="H15" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="J16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J17" s="1"/>
+    <row r="17" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J18" s="1"/>
+    <row r="18" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J19" s="1"/>
+    <row r="19" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J20" s="1"/>
+    <row r="20" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J21" s="1"/>
+    <row r="21" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J22" s="1"/>
+    <row r="22" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J23" s="1"/>
+    <row r="23" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J24" s="1"/>
+    <row r="24" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J25" s="1"/>
+    <row r="25" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J26" s="1"/>
+    <row r="26" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J27" s="1"/>
+    <row r="27" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J28" s="1"/>
+    <row r="28" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J29" s="1"/>
+    <row r="29" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J30" s="1"/>
+    <row r="30" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J31" s="1"/>
+    <row r="31" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J32" s="1"/>
+    <row r="32" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J33" s="1"/>
+    <row r="33" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J34" s="1"/>
+    <row r="34" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J35" s="1"/>
+    <row r="35" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J36" s="1"/>
+    <row r="36" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J37" s="1"/>
+    <row r="37" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J38" s="1"/>
+    <row r="38" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J39" s="1"/>
+    <row r="39" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J40" s="1"/>
+    <row r="40" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J41" s="1"/>
+    <row r="41" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J42" s="1"/>
+    <row r="42" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J43" s="1"/>
+    <row r="43" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J44" s="1"/>
+    <row r="44" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC44" s="1"/>
     </row>
-    <row r="45" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J45" s="1"/>
+    <row r="45" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC45" s="1"/>
     </row>
-    <row r="46" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J46" s="1"/>
+    <row r="46" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC46" s="1"/>
     </row>
-    <row r="47" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J47" s="1"/>
+    <row r="47" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC47" s="1"/>
     </row>
-    <row r="48" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J48" s="1"/>
+    <row r="48" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC48" s="1"/>
     </row>
-    <row r="49" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J49" s="1"/>
+    <row r="49" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC49" s="1"/>
     </row>
-    <row r="50" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J50" s="1"/>
+    <row r="50" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC50" s="1"/>
     </row>
-    <row r="51" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J51" s="1"/>
+    <row r="51" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC51" s="1"/>
     </row>
-    <row r="52" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J52" s="1"/>
+    <row r="52" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC52" s="1"/>
     </row>
-    <row r="53" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J53" s="1"/>
+    <row r="53" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC53" s="1"/>
     </row>
-    <row r="54" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J54" s="1"/>
+    <row r="54" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC54" s="1"/>
     </row>
-    <row r="55" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J55" s="1"/>
+    <row r="55" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC55" s="1"/>
     </row>
-    <row r="56" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J56" s="1"/>
+    <row r="56" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC56" s="1"/>
     </row>
-    <row r="57" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J57" s="1"/>
+    <row r="57" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC57" s="1"/>
     </row>
-    <row r="58" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J58" s="1"/>
+    <row r="58" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC58" s="1"/>
     </row>
-    <row r="59" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J59" s="1"/>
+    <row r="59" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC59" s="1"/>
     </row>
-    <row r="60" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J60" s="1"/>
+    <row r="60" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC60" s="1"/>
     </row>
-    <row r="61" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J61" s="1"/>
+    <row r="61" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC61" s="1"/>
     </row>
-    <row r="62" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J62" s="1"/>
+    <row r="62" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC62" s="1"/>
     </row>
-    <row r="63" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J63" s="1"/>
+    <row r="63" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC63" s="1"/>
     </row>
-    <row r="64" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J64" s="1"/>
+    <row r="64" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC64" s="1"/>
     </row>
-    <row r="65" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J65" s="1"/>
+    <row r="65" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC65" s="1"/>
     </row>
-    <row r="66" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J66" s="1"/>
+    <row r="66" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC66" s="1"/>
     </row>
-    <row r="67" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J67" s="1"/>
+    <row r="67" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC67" s="1"/>
     </row>
-    <row r="68" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J68" s="1"/>
+    <row r="68" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC68" s="1"/>
     </row>
-    <row r="69" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J69" s="1"/>
+    <row r="69" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC69" s="1"/>
     </row>
-    <row r="70" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J70" s="1"/>
+    <row r="70" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC70" s="1"/>
     </row>
-    <row r="71" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J71" s="1"/>
+    <row r="71" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC71" s="1"/>
     </row>
-    <row r="72" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J72" s="1"/>
+    <row r="72" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC72" s="1"/>
     </row>
-    <row r="73" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J73" s="1"/>
+    <row r="73" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC73" s="1"/>
     </row>
-    <row r="74" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J74" s="1"/>
+    <row r="74" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC74" s="1"/>
     </row>
-    <row r="75" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J75" s="1"/>
+    <row r="75" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC75" s="1"/>
     </row>
-    <row r="76" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J76" s="1"/>
+    <row r="76" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC76" s="1"/>
     </row>
-    <row r="77" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J77" s="1"/>
+    <row r="77" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC77" s="1"/>
     </row>
-    <row r="78" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J78" s="1"/>
+    <row r="78" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC78" s="1"/>
     </row>
-    <row r="79" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J79" s="1"/>
+    <row r="79" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC79" s="1"/>
     </row>
-    <row r="80" spans="10:55" x14ac:dyDescent="0.35">
-      <c r="J80" s="1"/>
+    <row r="80" spans="55:55" x14ac:dyDescent="0.35">
       <c r="BC80" s="1"/>
     </row>
   </sheetData>
